--- a/data/trans_camb/P57_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P57_R2-Habitat-trans_camb.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>12.07967132001263</v>
+        <v>12.07967132001261</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>13.60042087372257</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6.420884508513177</v>
+        <v>6.47519947828033</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>9.3530074345845</v>
+        <v>9.141046809360141</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9.663019055608901</v>
+        <v>9.325332293434013</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>17.37523189785907</v>
+        <v>17.2062904773539</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>18.71641866546198</v>
+        <v>18.25018197935025</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16.53994988269225</v>
+        <v>16.42711101874215</v>
       </c>
     </row>
     <row r="7">
@@ -615,10 +615,10 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>0.4034885513362774</v>
+        <v>0.4034885513362769</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.5153652128672123</v>
+        <v>0.515365212867212</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0.4546484196198486</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.1987937641337152</v>
+        <v>0.1983589336540029</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.318065985925145</v>
+        <v>0.3202356210395058</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.327927821258602</v>
+        <v>0.3138120446338377</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.6277076609149886</v>
+        <v>0.6203744329518739</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.7810350322640962</v>
+        <v>0.7757692308268304</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.632487544414094</v>
+        <v>0.6196390173376043</v>
       </c>
     </row>
     <row r="10">
@@ -676,7 +676,7 @@
         <v>15.30528504465041</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17.45043326625006</v>
+        <v>17.45043326625004</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>15.02744885876912</v>
+        <v>14.71229310452374</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>11.42073878031846</v>
+        <v>11.70995152705918</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>14.61368008150092</v>
+        <v>14.10313711812272</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>24.21143706104772</v>
+        <v>23.83053062233017</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>19.21869260128901</v>
+        <v>19.41242562530474</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>20.45942134379555</v>
+        <v>20.43703767971134</v>
       </c>
     </row>
     <row r="13">
@@ -721,13 +721,13 @@
         </is>
       </c>
       <c r="C13" s="6" t="n">
-        <v>0.6679220771803788</v>
+        <v>0.6679220771803789</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.5805307615887144</v>
+        <v>0.5805307615887142</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.6264913144760498</v>
+        <v>0.6264913144760493</v>
       </c>
     </row>
     <row r="14">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.4785325722927459</v>
+        <v>0.4815447789128482</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.3960322528774741</v>
+        <v>0.4180544018887116</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.4977936469510911</v>
+        <v>0.4782480837746438</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.8905089313689762</v>
+        <v>0.8736022631609215</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.8063186011908834</v>
+        <v>0.797335242196299</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.7747130280610801</v>
+        <v>0.780594107350164</v>
       </c>
     </row>
     <row r="16">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>18.33860479273147</v>
+        <v>17.65973080099201</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>19.27956413110961</v>
+        <v>18.77793627181889</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>19.98765553449931</v>
+        <v>19.96233038572851</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>28.54761844289126</v>
+        <v>28.55559144684924</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>28.66684782202263</v>
+        <v>28.06416306748542</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>27.11947350358913</v>
+        <v>26.86082744888265</v>
       </c>
     </row>
     <row r="19">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.5435766553019438</v>
+        <v>0.5430118627796855</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.7003943891886796</v>
+        <v>0.6607128175883608</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.6820059260713691</v>
+        <v>0.6759505340517815</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.035556350877822</v>
+        <v>1.035654579478707</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.257340477321998</v>
+        <v>1.219978730110222</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.038959830431602</v>
+        <v>1.036379692769447</v>
       </c>
     </row>
     <row r="22">
@@ -882,13 +882,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>9.028205735731904</v>
+        <v>9.028205735731893</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>9.155958935825426</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>9.079479934678524</v>
+        <v>9.079479934678519</v>
       </c>
     </row>
     <row r="23">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>4.618190875967721</v>
+        <v>4.294681316687379</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>5.292669876156556</v>
+        <v>5.435199785187623</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6.13519760002217</v>
+        <v>6.153872432551155</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>13.59009477960405</v>
+        <v>13.60426991952929</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>12.97530811300611</v>
+        <v>13.58516600577912</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>11.90705591057273</v>
+        <v>12.29112613315888</v>
       </c>
     </row>
     <row r="25">
@@ -933,13 +933,13 @@
         </is>
       </c>
       <c r="C25" s="6" t="n">
-        <v>0.2829187783506038</v>
+        <v>0.2829187783506035</v>
       </c>
       <c r="D25" s="6" t="n">
         <v>0.3402796754631933</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.3101483047752839</v>
+        <v>0.3101483047752838</v>
       </c>
     </row>
     <row r="26">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1332528890357431</v>
+        <v>0.1175106492318388</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1830755949753542</v>
+        <v>0.184020686601728</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.1994880129622036</v>
+        <v>0.2053520742432397</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.453505454304401</v>
+        <v>0.4458149038062365</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.5225033095865957</v>
+        <v>0.5519441015657042</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.4293642766985309</v>
+        <v>0.458359864986019</v>
       </c>
     </row>
     <row r="28">
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>16.05347422088062</v>
+        <v>16.0534742208806</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>14.91511825600026</v>
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>13.44133970799707</v>
+        <v>13.61512081200165</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>12.65741325714289</v>
+        <v>12.77395667452096</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>13.9347202233823</v>
+        <v>13.82358547539439</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>18.78356593257003</v>
+        <v>18.67452703176223</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>16.97272169684705</v>
+        <v>17.02303437018982</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>17.0613116743374</v>
+        <v>17.11422100267681</v>
       </c>
     </row>
     <row r="31">
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>0.5288705587664612</v>
+        <v>0.5288705587664608</v>
       </c>
       <c r="D31" s="6" t="n">
         <v>0.5666071980854613</v>
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.4289205510725951</v>
+        <v>0.4357582958855894</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.4621851561032079</v>
+        <v>0.4625904696264023</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.4791128949666152</v>
+        <v>0.4726990176495687</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.644000853028837</v>
+        <v>0.6422250460749444</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.6686215131641751</v>
+        <v>0.6722390420619333</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.6204193855467639</v>
+        <v>0.6236056541259014</v>
       </c>
     </row>
     <row r="34">
